--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\72回生\01　個人フォルダ\2年次\9組\2931\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26685" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>一日三食食べている。</t>
   </si>
@@ -48,39 +48,6 @@
   </si>
   <si>
     <t>先輩または後輩と話すことにストレスを感じる。</t>
-  </si>
-  <si>
-    <t>他者に対して何か有益な役割を果たしている。</t>
-  </si>
-  <si>
-    <t>全般的に満足している。</t>
-  </si>
-  <si>
-    <t>日常生活は楽しい。</t>
-  </si>
-  <si>
-    <t>物事に集中できる。</t>
-  </si>
-  <si>
-    <t>物事を決断することができる。</t>
-  </si>
-  <si>
-    <t>自分の直面している問題に立ち向かうことができる。</t>
-  </si>
-  <si>
-    <t>心配事で睡眠時間が減ることがある。</t>
-  </si>
-  <si>
-    <t>いろんな問題を解決できなくて困る。</t>
-  </si>
-  <si>
-    <t>いつも緊張している。</t>
-  </si>
-  <si>
-    <t>自分は不幸せで憂鬱だと感じる</t>
-  </si>
-  <si>
-    <t>自分に自信がない。</t>
   </si>
   <si>
     <t>因子名</t>
@@ -130,20 +97,6 @@
     <t>人間関係</t>
     <rPh sb="0" eb="4">
       <t>ニンゲンカンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>抑うつ</t>
-    <rPh sb="0" eb="1">
-      <t>ヨク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自己肯定</t>
-    <rPh sb="0" eb="4">
-      <t>ジココウテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -481,251 +434,376 @@
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="13.5" x14ac:dyDescent="0.15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
+    <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
+    <xsd:import namespace="e6f443d6-9b28-4441-a79c-6d0eebf0af5e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa64cc7a-1a52-43e8-a539-0df051b127e4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8a78fa4a-40b8-4e29-8771-2350bfedeed8" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d5d43bd5-58a7-42aa-8c49-4142c8cecce4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e6f443d6-9b28-4441-a79c-6d0eebf0af5e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
+    <ds:schemaRef ds:uri="e6f443d6-9b28-4441-a79c-6d0eebf0af5e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1,53 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\72回生\01　個人フォルダ\2年次\9組\2931\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teacher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_BEFA78A34D91F18F039F52B477A31AE116087BA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3361214F-F574-4811-86F8-9FAE1D227D0F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26685" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
-  <si>
-    <t>一日三食食べている。</t>
-  </si>
-  <si>
-    <t>心に余裕がある。</t>
-  </si>
-  <si>
-    <t>学習面で進路についての不安がある。</t>
-  </si>
-  <si>
-    <t>ストレスを感じているとき、集中力が下がる。</t>
-  </si>
-  <si>
-    <t>勉強と部活、趣味の両立に苦痛を感じる。</t>
-  </si>
-  <si>
-    <t>人と話すことに疲れを感じる。</t>
-  </si>
-  <si>
-    <t>先生と話すことにストレスを感じる。</t>
-  </si>
-  <si>
-    <t>先輩または後輩と話すことにストレスを感じる。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>設問番号</t>
+    <rPh sb="0" eb="4">
+      <t>セツモンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設問名</t>
+    <rPh sb="0" eb="3">
+      <t>セツモンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>因子名</t>
@@ -57,18 +59,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設問名</t>
-    <rPh sb="0" eb="3">
-      <t>セツモンメイ</t>
+    <t>反転</t>
+  </si>
+  <si>
+    <t>先輩または後輩と話すことにストレスを感じる。</t>
+  </si>
+  <si>
+    <t>人間関係</t>
+    <rPh sb="0" eb="4">
+      <t>ニンゲンカンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設問番号</t>
-    <rPh sb="0" eb="4">
-      <t>セツモンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>先生と話すことにストレスを感じる。</t>
+  </si>
+  <si>
+    <t>人と話すことに疲れを感じる。</t>
+  </si>
+  <si>
+    <t>勉強と部活、趣味の両立に苦痛を感じる。</t>
+  </si>
+  <si>
+    <t>ストレスを感じているとき、集中力が下がる。</t>
   </si>
   <si>
     <t>心理的余裕</t>
@@ -78,10 +91,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１日の栄養バランスを考えた食事をとっている。</t>
-  </si>
-  <si>
-    <t>長期休暇中に昼夜逆転をしてしまう。</t>
+    <t>学習面で進路についての不安がある。</t>
+  </si>
+  <si>
+    <t>心に余裕がある。</t>
+  </si>
+  <si>
+    <t>一日三食食べている。</t>
   </si>
   <si>
     <t>食事・睡眠</t>
@@ -94,18 +110,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>人間関係</t>
-    <rPh sb="0" eb="4">
-      <t>ニンゲンカンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>１日の栄養バランスを考えた食事をとっている。</t>
+  </si>
+  <si>
+    <t>長期休暇中に昼夜逆転をしてしまう。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,41 +437,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="13.5">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -464,97 +482,116 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.5"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,15 +599,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -781,29 +809,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
-    <ds:schemaRef ds:uri="e6f443d6-9b28-4441-a79c-6d0eebf0af5e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}"/>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\72回生\01　個人フォルダ\2年次\9組\2908\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_BEFA78A34D91F18F039F52B477A31AE116087BA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3361214F-F574-4811-86F8-9FAE1D227D0F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,19 +436,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,8 +472,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.5">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -488,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -516,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -530,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -544,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -555,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -566,7 +568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -577,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -591,7 +593,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,9 +820,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
+    <ds:schemaRef ds:uri="e6f443d6-9b28-4441-a79c-6d0eebf0af5e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\72回生\01　個人フォルダ\2年次\9組\2908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24728ECD-D239-4949-A47A-CEC056659FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="質問項目" sheetId="1" r:id="rId1"/>
+    <sheet name="因子平均" sheetId="2" r:id="rId2"/>
+    <sheet name="フィードバック（基準以上）" sheetId="4" r:id="rId3"/>
+    <sheet name="フィードバック（基準未満）" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -113,13 +106,373 @@
   </si>
   <si>
     <t>長期休暇中に昼夜逆転をしてしまう。</t>
+  </si>
+  <si>
+    <t>平均値</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヘイキンチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のコーピング法を提案します。</t>
+  </si>
+  <si>
+    <t>①有酸素運動(ジョギングやランニング)</t>
+  </si>
+  <si>
+    <t>全身を動かすことで大きなエネルギーを使うため、カロリー消費や心肺機能の向上に効果的です。</t>
+  </si>
+  <si>
+    <t>②レジスタンストレーニング(スクワットやフィットネス機器等を使用したトレーニング)</t>
+  </si>
+  <si>
+    <t>習慣的にレジスタンストレーニングを行うと睡眠の質の向上につながります。</t>
+  </si>
+  <si>
+    <t>③規則的な睡習習慣</t>
+  </si>
+  <si>
+    <t>毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます​。</t>
+  </si>
+  <si>
+    <t>④就寝前のリラックスの習慣</t>
+  </si>
+  <si>
+    <t>深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。</t>
+  </si>
+  <si>
+    <t>⑤寝室環境の最適化</t>
+  </si>
+  <si>
+    <t>快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。​​</t>
+  </si>
+  <si>
+    <t>以下のコーピング法を提案します。​</t>
+  </si>
+  <si>
+    <r>
+      <t>①運動時間の確保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF31333F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>ヨガやウォーキングがジョギングなどがおすすめです。​</t>
+  </si>
+  <si>
+    <r>
+      <t>②規則的な睡眠習慣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF31333F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます​。​</t>
+  </si>
+  <si>
+    <r>
+      <t>③就寝前のリラックスの習慣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF31333F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。​</t>
+  </si>
+  <si>
+    <r>
+      <t>④寝室環境の最適化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF31333F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。​</t>
+  </si>
+  <si>
+    <t>①規則的な睡習慣眠​</t>
+  </si>
+  <si>
+    <r>
+      <t>②就寝前のリラックスの習慣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF31333F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>③寝室環境の最適化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF31333F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>④バランスのとれた​食事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF31333F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <t>バランスの取れた食事で必要な栄養素を摂り、高脂肪や高塩分、高糖分の食事、間食を避けることが心拍数の安定に寄与します。​</t>
+  </si>
+  <si>
+    <t>⑤適切な水分摂取​</t>
+  </si>
+  <si>
+    <t>適切な水分摂取は循環を助け、心臓が効果的に働くのに役立ちます。​</t>
+  </si>
+  <si>
+    <t>マークアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の改善策を提案します。</t>
+  </si>
+  <si>
+    <t>以下の改善策を提案します。​</t>
+  </si>
+  <si>
+    <t>人間関係ストレスが低い場合、新たなコミュニティに挑戦することをおすすめします。</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ニンゲンカンケイ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ヒクイバアイ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">アラタナニンゲンカンケイ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">チョウセンスルコトヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、あなたの周りには、人間関係ストレスに悩む人もいるかも知れません。周りの人には優しく接しましょう。</t>
+    <rPh sb="12" eb="16">
+      <t>ニンゲンカｎ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ナヤムヒトモ </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">マワリノヒトニハ </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t xml:space="preserve">ヤサシクセッシマショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心理的余裕を支えるのは、基本的な生活です。適度な運動や睡眠は欠かさないようにしましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ヨユウハ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ササエルノハ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">キホンテキナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セイカツデス </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">テキドナウンドウヤ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">スイミン </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">カカサナイヨウニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アクティビティの実行</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新しいコミュニティの捜索</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">アタラシイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ソウサク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プラスアルファの活動</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カツドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心理的余裕がある時こそ「思い切った挑戦」ができます。一歩踏み出すのも１つの手段です。ですが、無理はしないようにしてください。</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">シンリテキヨユウ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">トキ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">オモイキッテ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">チョウセンガデキマス </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">イッポ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">フミダスノモ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シュダンデス </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">ムリハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事・睡眠等の生活リズムが整っているのはとても良いことです。さらにQOLを高めるために、散歩やストレッチ等の軽い運動をしてみると良いでしょう。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショクジ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">スイミン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ナドノ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">セイカツ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">トトノッテイルノハ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ヨイコトデス </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">タカメルタメニ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">サンポヤ </t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t xml:space="preserve">ナドノ </t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t xml:space="preserve">カルイウンドウ </t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t xml:space="preserve">ヨイデショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体を動かすことはストレスの低下に繋がります。睡眠の質も向上するので是非試してみてください。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カラダ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ウゴカス </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">テイカニ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ツナガリマス </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">スイミンノ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">シツ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">コウジョウスルノデ </t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t xml:space="preserve">ゼヒタメシテミテクダサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +486,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF31333F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,19 +795,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -476,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -504,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -518,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -532,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -546,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -557,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -568,7 +927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -579,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -591,6 +950,318 @@
       </c>
       <c r="D11">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8CAD55-5A58-B44C-96A7-9346150163E3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -600,6 +1271,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -810,16 +1490,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -836,12 +1515,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24728ECD-D239-4949-A47A-CEC056659FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF7C36E-4892-DF49-BDA9-2612CDC9417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -57,13 +57,6 @@
     <t>先輩または後輩と話すことにストレスを感じる。</t>
   </si>
   <si>
-    <t>人間関係</t>
-    <rPh sb="0" eb="4">
-      <t>ニンゲンカンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>先生と話すことにストレスを感じる。</t>
   </si>
   <si>
@@ -76,13 +69,6 @@
     <t>ストレスを感じているとき、集中力が下がる。</t>
   </si>
   <si>
-    <t>心理的余裕</t>
-    <rPh sb="0" eb="5">
-      <t>シンリテキヨユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学習面で進路についての不安がある。</t>
   </si>
   <si>
@@ -90,16 +76,6 @@
   </si>
   <si>
     <t>一日三食食べている。</t>
-  </si>
-  <si>
-    <t>食事・睡眠</t>
-    <rPh sb="0" eb="2">
-      <t>ショクジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>スイミン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>１日の栄養バランスを考えた食事をとっている。</t>
@@ -464,6 +440,34 @@
     </rPh>
     <rPh sb="33" eb="36">
       <t xml:space="preserve">ゼヒタメシテミテクダサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1　人間関係</t>
+    <rPh sb="3" eb="7">
+      <t>ニンゲンカンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2　心理的余裕</t>
+    <rPh sb="3" eb="8">
+      <t>シンリテキヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F3　食事・睡眠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F3　食事・睡眠</t>
+    <rPh sb="3" eb="5">
+      <t>ショクジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スイミン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -799,7 +803,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -829,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -840,10 +844,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -854,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -868,10 +872,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -882,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -896,10 +900,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -910,10 +914,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -921,10 +925,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -932,10 +936,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -943,10 +947,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -973,12 +977,12 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>1.94</v>
@@ -986,7 +990,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>2.81</v>
@@ -994,7 +998,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>2.83</v>
@@ -1011,79 +1015,79 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1097,171 +1101,171 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1271,15 +1275,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1490,15 +1485,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1515,4 +1511,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF7C36E-4892-DF49-BDA9-2612CDC9417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA89959-92B3-804B-8042-D5BD7951B23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12680" yWindow="3500" windowWidth="28800" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -253,14 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>**</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下の改善策を提案します。</t>
   </si>
   <si>
@@ -462,13 +454,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F3　食事・睡眠</t>
-    <rPh sb="3" eb="5">
-      <t>ショクジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>スイミン</t>
-    </rPh>
+    <t>##</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>###</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -803,7 +797,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -833,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -847,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -861,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -875,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -889,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -903,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -917,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -928,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -939,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -950,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -967,7 +961,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -982,7 +976,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>1.94</v>
@@ -990,7 +984,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2.81</v>
@@ -998,7 +992,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>2.83</v>
@@ -1015,7 +1009,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1025,69 +1019,69 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1095,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1111,18 +1105,18 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1136,7 +1130,7 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1150,7 +1144,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1164,7 +1158,7 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1178,7 +1172,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1192,7 +1186,7 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1206,7 +1200,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1220,7 +1214,7 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1234,7 +1228,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1248,7 +1242,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1259,7 +1253,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1275,6 +1269,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1485,16 +1488,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1511,12 +1513,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA89959-92B3-804B-8042-D5BD7951B23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F0A06-BEEE-484C-9A66-EC83DE568204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="3500" windowWidth="28800" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12680" yWindow="3500" windowWidth="28800" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1269,15 +1269,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1488,15 +1479,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1513,4 +1505,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F0A06-BEEE-484C-9A66-EC83DE568204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FD3317-18A7-F246-A0AF-CA3FFF34B77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="3500" windowWidth="28800" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2380" windowWidth="28800" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -454,15 +454,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>##</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>###</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FD3317-18A7-F246-A0AF-CA3FFF34B77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3497C4F-AE72-3840-8E1F-B325E431D4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2380" windowWidth="28800" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18680" yWindow="3240" windowWidth="28800" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -455,10 +455,6 @@
   </si>
   <si>
     <t>###</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>**</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1008,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1044,7 +1040,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -1058,7 +1054,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -1072,7 +1068,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1094,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1130,7 +1126,7 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1144,7 +1140,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1158,7 +1154,7 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1172,7 +1168,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1186,7 +1182,7 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1200,7 +1196,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1214,7 +1210,7 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1228,7 +1224,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1242,7 +1238,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1253,7 +1249,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1269,6 +1265,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1479,16 +1484,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1505,12 +1509,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3497C4F-AE72-3840-8E1F-B325E431D4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA421F5D-B593-BD4D-B02B-107050399B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18680" yWindow="3240" windowWidth="28800" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15260" yWindow="4260" windowWidth="28800" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -97,31 +97,16 @@
     <t>①有酸素運動(ジョギングやランニング)</t>
   </si>
   <si>
-    <t>全身を動かすことで大きなエネルギーを使うため、カロリー消費や心肺機能の向上に効果的です。</t>
-  </si>
-  <si>
     <t>②レジスタンストレーニング(スクワットやフィットネス機器等を使用したトレーニング)</t>
   </si>
   <si>
-    <t>習慣的にレジスタンストレーニングを行うと睡眠の質の向上につながります。</t>
-  </si>
-  <si>
     <t>③規則的な睡習習慣</t>
   </si>
   <si>
-    <t>毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます​。</t>
-  </si>
-  <si>
     <t>④就寝前のリラックスの習慣</t>
   </si>
   <si>
-    <t>深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。</t>
-  </si>
-  <si>
     <t>⑤寝室環境の最適化</t>
-  </si>
-  <si>
-    <t>快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。​​</t>
   </si>
   <si>
     <t>以下のコーピング法を提案します。​</t>
@@ -141,9 +126,6 @@
     </r>
   </si>
   <si>
-    <t>ヨガやウォーキングがジョギングなどがおすすめです。​</t>
-  </si>
-  <si>
     <r>
       <t>②規則的な睡眠習慣</t>
     </r>
@@ -158,9 +140,6 @@
     </r>
   </si>
   <si>
-    <t>毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます​。​</t>
-  </si>
-  <si>
     <r>
       <t>③就寝前のリラックスの習慣</t>
     </r>
@@ -175,9 +154,6 @@
     </r>
   </si>
   <si>
-    <t>深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。​</t>
-  </si>
-  <si>
     <r>
       <t>④寝室環境の最適化</t>
     </r>
@@ -192,9 +168,6 @@
     </r>
   </si>
   <si>
-    <t>快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。​</t>
-  </si>
-  <si>
     <t>①規則的な睡習慣眠​</t>
   </si>
   <si>
@@ -240,15 +213,9 @@
     </r>
   </si>
   <si>
-    <t>バランスの取れた食事で必要な栄養素を摂り、高脂肪や高塩分、高糖分の食事、間食を避けることが心拍数の安定に寄与します。​</t>
-  </si>
-  <si>
     <t>⑤適切な水分摂取​</t>
   </si>
   <si>
-    <t>適切な水分摂取は循環を助け、心臓が効果的に働くのに役立ちます。​</t>
-  </si>
-  <si>
     <t>マークアップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,66 +224,6 @@
   </si>
   <si>
     <t>以下の改善策を提案します。​</t>
-  </si>
-  <si>
-    <t>人間関係ストレスが低い場合、新たなコミュニティに挑戦することをおすすめします。</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">ニンゲンカンケイ </t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t xml:space="preserve">ヒクイバアイ </t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t xml:space="preserve">アラタナニンゲンカンケイ </t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t xml:space="preserve">チョウセンスルコトヲ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また、あなたの周りには、人間関係ストレスに悩む人もいるかも知れません。周りの人には優しく接しましょう。</t>
-    <rPh sb="12" eb="16">
-      <t>ニンゲンカｎ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t xml:space="preserve">ナヤムヒトモ </t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t xml:space="preserve">マワリノヒトニハ </t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t xml:space="preserve">ヤサシクセッシマショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>心理的余裕を支えるのは、基本的な生活です。適度な運動や睡眠は欠かさないようにしましょう。</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">ヨユウハ </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ササエルノハ </t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t xml:space="preserve">キホンテキナ </t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">セイカツデス </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">テキドナウンドウヤ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t xml:space="preserve">スイミン </t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t xml:space="preserve">カカサナイヨウニ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・アクティビティの実行</t>
@@ -343,99 +250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>心理的余裕がある時こそ「思い切った挑戦」ができます。一歩踏み出すのも１つの手段です。ですが、無理はしないようにしてください。</t>
-    <rPh sb="0" eb="5">
-      <t xml:space="preserve">シンリテキヨユウ </t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t xml:space="preserve">トキ </t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t xml:space="preserve">オモイキッテ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">チョウセンガデキマス </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">イッポ </t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t xml:space="preserve">フミダスノモ </t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t xml:space="preserve">シュダンデス </t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t xml:space="preserve">ムリハ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食事・睡眠等の生活リズムが整っているのはとても良いことです。さらにQOLを高めるために、散歩やストレッチ等の軽い運動をしてみると良いでしょう。</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ショクジ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">スイミン </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ナドノ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">セイカツ </t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t xml:space="preserve">トトノッテイルノハ </t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t xml:space="preserve">ヨイコトデス </t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t xml:space="preserve">タカメルタメニ </t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t xml:space="preserve">サンポヤ </t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t xml:space="preserve">ナドノ </t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t xml:space="preserve">カルイウンドウ </t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t xml:space="preserve">ヨイデショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体を動かすことはストレスの低下に繋がります。睡眠の質も向上するので是非試してみてください。</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">カラダ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ウゴカス </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">テイカニ </t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t xml:space="preserve">ツナガリマス </t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t xml:space="preserve">スイミンノ </t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t xml:space="preserve">シツ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t xml:space="preserve">コウジョウスルノデ </t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t xml:space="preserve">ゼヒタメシテミテクダサイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>F1　人間関係</t>
     <rPh sb="3" eb="7">
       <t>ニンゲンカンケイ</t>
@@ -454,11 +268,326 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>###</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>　人間関係ストレスが低い場合、新たなコミュニティに挑戦することをおすすめします。</t>
+    <rPh sb="1" eb="5">
+      <t xml:space="preserve">ニンゲンカンケイ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ヒクイバアイ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">アラタナニンゲンカンケイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">チョウセンスルコトヲ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　心理的余裕がある時こそ「思い切った挑戦」ができます。一歩踏み出すのも１つの手段です。ですが、無理はしないようにしてください。</t>
+    <rPh sb="1" eb="6">
+      <t xml:space="preserve">シンリテキヨユウ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">トキ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オモイキッテ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">チョウセンガデキマス </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">イッポ </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">フミダスノモ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">シュダンデス </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">ムリハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　食事・睡眠等の生活リズムが整っているのはとても良いことです。さらにQOLを高めるために、散歩やストレッチ等の軽い運動をしてみると良いでしょう。</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ショクジ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">スイミン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ナドノ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">セイカツ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">トトノッテイルノハ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">ヨイコトデス </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">タカメルタメニ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">サンポヤ </t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t xml:space="preserve">ナドノ </t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t xml:space="preserve">カルイウンドウ </t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t xml:space="preserve">ヨイデショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　また、あなたの周りには、人間関係ストレスに悩む人もいるかも知れません。周りの人には優しく接しましょう。</t>
+    <rPh sb="13" eb="17">
+      <t>ニンゲンカｎ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">ナヤムヒトモ </t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">マワリノヒトニハ </t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t xml:space="preserve">ヤサシクセッシマショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　心理的余裕を支えるのは、基本的な生活です。適度な運動や睡眠は欠かさないようにしましょう。</t>
+    <rPh sb="1" eb="2">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ヨユウハ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ササエルノハ </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">キホンテキナ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">セイカツデス </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">テキドナウンドウヤ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">スイミン </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">カカサナイヨウニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　体を動かすことはストレスの低下に繋がります。睡眠の質も向上するので是非試してみてください。</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">カラダ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ウゴカス </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">テイカニ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ツナガリマス </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">スイミンノ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">シツ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">コウジョウスルノデ </t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t xml:space="preserve">ゼヒタメシテミテクダサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　全身を動かすことで大きなエネルギーを使うため、カロリー消費や心肺機能の向上に効果的です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　ヨガやウォーキングがジョギングなどがおすすめです。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　習慣的にレジスタンストレーニングを行うと睡眠の質の向上につながります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　バランスの取れた食事で必要な栄養素を摂り、高脂肪や高塩分、高糖分の食事、間食を避けることが心拍数の安定に寄与します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​​</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　適切な水分摂取は循環を助け、心臓が効果的に働くのに役立ちます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +615,20 @@
       <color rgb="FF31333F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -823,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -837,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -851,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -865,7 +1008,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -879,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -893,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -907,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -918,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -929,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -940,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -972,7 +1115,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1.94</v>
@@ -980,7 +1123,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>2.81</v>
@@ -988,7 +1131,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2.83</v>
@@ -1005,79 +1148,67 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1091,171 +1222,138 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1265,15 +1363,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1484,15 +1573,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1509,4 +1599,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA421F5D-B593-BD4D-B02B-107050399B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C576EB19-9EEE-9040-92B7-027F50FEDAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="4260" windowWidth="28800" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -588,6 +588,10 @@
       </rPr>
       <t>​</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>###</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1147,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1168,6 +1172,9 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -1179,6 +1186,9 @@
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1190,6 +1200,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -1201,6 +1214,9 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -1221,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1242,6 +1258,9 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1253,6 +1272,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1264,6 +1286,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -1275,6 +1300,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1286,6 +1314,9 @@
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
@@ -1297,6 +1328,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1308,6 +1342,9 @@
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -1319,6 +1356,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1330,6 +1370,9 @@
       </c>
     </row>
     <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -1341,6 +1384,9 @@
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1349,6 +1395,9 @@
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1363,6 +1412,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1573,16 +1631,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1599,12 +1656,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C576EB19-9EEE-9040-92B7-027F50FEDAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AFC080-317A-5F4B-A98E-5E9D048E7B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -591,7 +591,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>###</t>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1151,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1173,7 +1177,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -1187,7 +1191,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -1237,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1259,7 +1263,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1273,7 +1277,7 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1301,7 +1305,7 @@
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1329,7 +1333,7 @@
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1357,7 +1361,7 @@
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1385,7 +1389,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1412,15 +1416,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1631,15 +1626,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1656,4 +1652,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AFC080-317A-5F4B-A98E-5E9D048E7B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC7644E-E73E-F546-B47F-5407413C6C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -588,14 +588,6 @@
       </rPr>
       <t>​</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>**</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1155,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1176,9 +1168,6 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -1190,9 +1179,6 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1204,9 +1190,6 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -1218,9 +1201,6 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -1241,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1262,9 +1242,6 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1276,9 +1253,6 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1290,9 +1264,6 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -1304,9 +1275,6 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1318,9 +1286,6 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
@@ -1332,9 +1297,6 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1346,9 +1308,6 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -1360,9 +1319,6 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1374,9 +1330,6 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -1388,9 +1341,6 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1399,9 +1349,6 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1416,6 +1363,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1626,16 +1582,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1652,12 +1607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC7644E-E73E-F546-B47F-5407413C6C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BC0A9-52EC-C840-9690-DB43DBFDA2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -588,6 +588,10 @@
       </rPr>
       <t>​</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1147,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1168,6 +1172,9 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -1179,6 +1186,9 @@
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1190,6 +1200,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -1201,6 +1214,9 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -1221,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1242,6 +1258,9 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1253,6 +1272,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1264,6 +1286,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -1275,6 +1300,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1286,6 +1314,9 @@
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
@@ -1297,6 +1328,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1308,6 +1342,9 @@
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -1319,6 +1356,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1330,6 +1370,9 @@
       </c>
     </row>
     <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -1341,6 +1384,9 @@
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1349,6 +1395,9 @@
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1363,15 +1412,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1582,15 +1622,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1607,4 +1648,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BC0A9-52EC-C840-9690-DB43DBFDA2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55FFDF1-4047-F046-8CED-6CDC2B3D8FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
+    <t>*</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1412,6 +1412,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1622,16 +1631,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1648,12 +1656,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55FFDF1-4047-F046-8CED-6CDC2B3D8FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916AEFC8-0EE0-7A4B-B36A-71F280A1E6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -214,10 +214,6 @@
   </si>
   <si>
     <t>⑤適切な水分摂取​</t>
-  </si>
-  <si>
-    <t>マークアップ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>以下の改善策を提案します。</t>
@@ -592,6 +588,18 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#####</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>####</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -970,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -984,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -998,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1012,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1026,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1040,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1054,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1065,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1076,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1087,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1119,7 +1127,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1.94</v>
@@ -1127,7 +1135,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2.81</v>
@@ -1135,7 +1143,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>2.83</v>
@@ -1151,80 +1159,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1237,29 +1245,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1273,7 +1281,7 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1287,21 +1295,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1315,21 +1323,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1343,21 +1351,21 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1371,21 +1379,21 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1396,13 +1404,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916AEFC8-0EE0-7A4B-B36A-71F280A1E6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803BA5B-DEEE-5F48-9294-DCC7D48B4205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,342 +264,205 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　人間関係ストレスが低い場合、新たなコミュニティに挑戦することをおすすめします。</t>
-    <rPh sb="1" eb="5">
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マークダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#####</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>####</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全身を動かすことで大きなエネルギーを使うため、カロリー消費や心肺機能の向上に効果的です。</t>
+  </si>
+  <si>
+    <t>ヨガやウォーキングがジョギングなどがおすすめです。​</t>
+  </si>
+  <si>
+    <t>毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます​。​</t>
+  </si>
+  <si>
+    <t>習慣的にレジスタンストレーニングを行うと睡眠の質の向上につながります。</t>
+  </si>
+  <si>
+    <t>深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。​</t>
+  </si>
+  <si>
+    <t>毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます​。</t>
+  </si>
+  <si>
+    <t>快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。​</t>
+  </si>
+  <si>
+    <t>深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。</t>
+  </si>
+  <si>
+    <t>バランスの取れた食事で必要な栄養素を摂り、高脂肪や高塩分、高糖分の食事、間食を避けることが心拍数の安定に寄与します。​</t>
+  </si>
+  <si>
+    <t>快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。​​</t>
+  </si>
+  <si>
+    <t>適切な水分摂取は循環を助け、心臓が効果的に働くのに役立ちます。​</t>
+  </si>
+  <si>
+    <t>人間関係ストレスが低い場合、新たなコミュニティに挑戦することをおすすめします。</t>
+    <rPh sb="0" eb="4">
       <t xml:space="preserve">ニンゲンカンケイ </t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="9" eb="10">
       <t xml:space="preserve">ヒクイバアイ </t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="14" eb="15">
       <t xml:space="preserve">アラタナニンゲンカンケイ </t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="24" eb="26">
       <t xml:space="preserve">チョウセンスルコトヲ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　心理的余裕がある時こそ「思い切った挑戦」ができます。一歩踏み出すのも１つの手段です。ですが、無理はしないようにしてください。</t>
-    <rPh sb="1" eb="6">
+    <t>心理的余裕がある時こそ「思い切った挑戦」ができます。一歩踏み出すのも１つの手段です。ですが、無理はしないようにしてください。</t>
+    <rPh sb="0" eb="5">
       <t xml:space="preserve">シンリテキヨユウ </t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="8" eb="9">
       <t xml:space="preserve">トキ </t>
     </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">オモイキッテ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">チョウセンガデキマス </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">イッポ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">フミダスノモ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シュダンデス </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">ムリハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事・睡眠等の生活リズムが整っているのはとても良いことです。さらにQOLを高めるために、散歩やストレッチ等の軽い運動をしてみると良いでしょう。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ショクジ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">スイミン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ナドノ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">セイカツ </t>
+    </rPh>
     <rPh sb="13" eb="14">
-      <t xml:space="preserve">オモイキッテ </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">チョウセンガデキマス </t>
+      <t xml:space="preserve">トトノッテイルノハ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ヨイコトデス </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">タカメルタメニ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">サンポヤ </t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t xml:space="preserve">ナドノ </t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t xml:space="preserve">カルイウンドウ </t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t xml:space="preserve">ヨイデショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、あなたの周りには、人間関係ストレスに悩む人もいるかも知れません。周りの人には優しく接しましょう。</t>
+    <rPh sb="12" eb="16">
+      <t>ニンゲンカｎ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ナヤムヒトモ </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">マワリノヒトニハ </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t xml:space="preserve">ヤサシクセッシマショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心理的余裕を支えるのは、基本的な生活です。適度な運動や睡眠は欠かさないようにしましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ヨユウハ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ササエルノハ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">キホンテキナ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セイカツデス </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">テキドナウンドウヤ </t>
     </rPh>
     <rPh sb="27" eb="29">
-      <t xml:space="preserve">イッポ </t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t xml:space="preserve">フミダスノモ </t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t xml:space="preserve">シュダンデス </t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t xml:space="preserve">ムリハ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　食事・睡眠等の生活リズムが整っているのはとても良いことです。さらにQOLを高めるために、散歩やストレッチ等の軽い運動をしてみると良いでしょう。</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">ショクジ </t>
-    </rPh>
-    <rPh sb="4" eb="6">
       <t xml:space="preserve">スイミン </t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ナドノ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">セイカツ </t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t xml:space="preserve">トトノッテイルノハ </t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t xml:space="preserve">ヨイコトデス </t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t xml:space="preserve">タカメルタメニ </t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t xml:space="preserve">サンポヤ </t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t xml:space="preserve">ナドノ </t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t xml:space="preserve">カルイウンドウ </t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t xml:space="preserve">ヨイデショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　また、あなたの周りには、人間関係ストレスに悩む人もいるかも知れません。周りの人には優しく接しましょう。</t>
-    <rPh sb="13" eb="17">
-      <t>ニンゲンカｎ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t xml:space="preserve">ナヤムヒトモ </t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t xml:space="preserve">マワリノヒトニハ </t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t xml:space="preserve">ヤサシクセッシマショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　心理的余裕を支えるのは、基本的な生活です。適度な運動や睡眠は欠かさないようにしましょう。</t>
-    <rPh sb="1" eb="2">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ヨユウハ </t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">ササエルノハ </t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t xml:space="preserve">キホンテキナ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">セイカツデス </t>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">カカサナイヨウニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体を動かすことはストレスの低下に繋がります。睡眠の質も向上するので是非試してみてください。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カラダ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ウゴカス </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">テイカニ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ツナガリマス </t>
     </rPh>
     <rPh sb="22" eb="24">
-      <t xml:space="preserve">テキドナウンドウヤ </t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t xml:space="preserve">スイミン </t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t xml:space="preserve">カカサナイヨウニ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　体を動かすことはストレスの低下に繋がります。睡眠の質も向上するので是非試してみてください。</t>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">カラダ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">ウゴカス </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">テイカニ </t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">ツナガリマス </t>
-    </rPh>
-    <rPh sb="23" eb="25">
       <t xml:space="preserve">スイミンノ </t>
     </rPh>
-    <rPh sb="26" eb="27">
+    <rPh sb="25" eb="26">
       <t xml:space="preserve">シツ </t>
     </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="27" eb="29">
       <t xml:space="preserve">コウジョウスルノデ </t>
     </rPh>
-    <rPh sb="34" eb="37">
+    <rPh sb="33" eb="36">
       <t xml:space="preserve">ゼヒタメシテミテクダサイ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　全身を動かすことで大きなエネルギーを使うため、カロリー消費や心肺機能の向上に効果的です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　ヨガやウォーキングがジョギングなどがおすすめです。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　習慣的にレジスタンストレーニングを行うと睡眠の質の向上につながります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　毎日同じ時間に寝床に入り、同じ時間に起きることで、体内時計を整えることで、質の高い睡眠を促進することができます</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　深呼吸、瞑想、温かい入浴、リラックス音楽、アロマ等の匂いなどが役立ちます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　バランスの取れた食事で必要な栄養素を摂り、高脂肪や高塩分、高糖分の食事、間食を避けることが心拍数の安定に寄与します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​​</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　適切な水分摂取は循環を助け、心臓が効果的に働くのに役立ちます。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マークダウン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#####</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>####</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -607,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,20 +490,6 @@
       <color rgb="FF31333F"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1160,14 +1009,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
@@ -1181,7 +1030,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -1195,7 +1044,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1209,30 +1058,30 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1246,14 +1095,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
@@ -1267,7 +1116,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1281,7 +1130,7 @@
     </row>
     <row r="3" spans="1:4" ht="21">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1295,21 +1144,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1323,21 +1172,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1351,21 +1200,21 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1379,21 +1228,21 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1404,13 +1253,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1420,15 +1269,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010088F98FF7A96BEA4791E3435F16684D9A" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="508defdab7f6e58952de628eb103681e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa64cc7a-1a52-43e8-a539-0df051b127e4" xmlns:ns3="e6f443d6-9b28-4441-a79c-6d0eebf0af5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8c8fa2ae48a543cf75590720674734d" ns2:_="" ns3:_="">
     <xsd:import namespace="aa64cc7a-1a52-43e8-a539-0df051b127e4"/>
@@ -1639,15 +1479,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5105ABA-1004-4A74-B3AB-1EE8E12FB03F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1664,4 +1505,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80891BBE-8FAE-4898-95D1-290BA8E1595E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoudaiki/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teacher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803BA5B-DEEE-5F48-9294-DCC7D48B4205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="質問項目" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>設問番号</t>
     <rPh sb="0" eb="4">
@@ -104,9 +103,6 @@
   </si>
   <si>
     <t>④就寝前のリラックスの習慣</t>
-  </si>
-  <si>
-    <t>⑤寝室環境の最適化</t>
   </si>
   <si>
     <t>以下のコーピング法を提案します。​</t>
@@ -307,9 +303,6 @@
     <t>バランスの取れた食事で必要な栄養素を摂り、高脂肪や高塩分、高糖分の食事、間食を避けることが心拍数の安定に寄与します。​</t>
   </si>
   <si>
-    <t>快適な寝室環境を整え、暗い部屋、快適な温度(13℃～29℃)や湿度(40%～60%)、静かな環境を確保しましょう。​​</t>
-  </si>
-  <si>
     <t>適切な水分摂取は循環を助け、心臓が効果的に働くのに役立ちます。​</t>
   </si>
   <si>
@@ -462,6 +455,97 @@
     </rPh>
     <rPh sb="33" eb="36">
       <t xml:space="preserve">ゼヒタメシテミテクダサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤身近な人間関係の改善</t>
+    <rPh sb="1" eb="3">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスや部活などの身近な関係について改めて考えてみましょう。相手を知ることで関わり方が改善されるかもしれません。</t>
+    <rPh sb="9" eb="11">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アラタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤「自己調整」の実践</t>
+    <rPh sb="2" eb="6">
+      <t>ジコチョウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心理的負荷がかかる要素を完全に取り除くことはできません。しかし、没頭できることに集中したり、ストレスを運動で解消したりすることは非常に効果的です。</t>
+    <rPh sb="0" eb="5">
+      <t>シンリテキフカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ボットウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カイショウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>コウカテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -469,8 +553,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,19 +877,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -827,13 +911,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -841,13 +925,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -855,13 +939,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -869,13 +953,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -883,13 +967,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -897,13 +981,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -911,10 +995,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -922,10 +1006,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -933,10 +1017,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -944,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -957,16 +1041,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8CAD55-5A58-B44C-96A7-9346150163E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -974,25 +1058,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1.94</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>2.81</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>2.83</v>
@@ -1005,83 +1089,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E99670-09F7-DB4C-B6A9-DC23EB2A0A95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1091,180 +1175,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF008-E600-6C40-A897-2EFF8353E960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21">
+    </row>
+    <row r="5" spans="1:4" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
+    </row>
+    <row r="7" spans="1:4" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
+    </row>
+    <row r="9" spans="1:4" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
